--- a/Code/Data/DJI/Compared Returns/Manual Recurrence/input 30/DJI_returns_compared_annual.xlsx
+++ b/Code/Data/DJI/Compared Returns/Manual Recurrence/input 30/DJI_returns_compared_annual.xlsx
@@ -501,13 +501,13 @@
         <v>0.06631783486247173</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1821186256719819</v>
+        <v>0.08815322733340154</v>
       </c>
       <c r="H2" t="n">
-        <v>174.6148544349419</v>
+        <v>32.92536994944349</v>
       </c>
       <c r="I2" t="n">
-        <v>7.812758142041474</v>
+        <v>-8.467553196120466</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.1182628833448802</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09893061438497087</v>
+        <v>0.09720123653599541</v>
       </c>
       <c r="H3" t="n">
-        <v>-16.34686083505359</v>
+        <v>-17.80917749778218</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.274995350893673</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.375362665731439</v>
+        <v>-0.39586394350955</v>
       </c>
       <c r="H4" t="n">
-        <v>36.49782242194089</v>
+        <v>-43.95295855841973</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.3990148638577719</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.366847224405918</v>
+        <v>-0.3385672669325922</v>
       </c>
       <c r="H5" t="n">
-        <v>-8.061764702409684</v>
+        <v>15.14920931535176</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.1971491815785268</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1962884324958316</v>
+        <v>0.224871422970643</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.4365978472765466</v>
+        <v>14.06155540193005</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.2073822796460858</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3199517315511477</v>
+        <v>0.272224770871786</v>
       </c>
       <c r="H7" t="n">
-        <v>54.28113342044968</v>
+        <v>31.26713205022098</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.1018960173709444</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07150361724903651</v>
+        <v>0.08645905805581128</v>
       </c>
       <c r="H8" t="n">
-        <v>-29.82687734621341</v>
+        <v>-15.14971802964202</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.1264800612384527</v>
       </c>
       <c r="G9" t="n">
-        <v>0.117473379558247</v>
+        <v>0.1269090409631717</v>
       </c>
       <c r="H9" t="n">
-        <v>-7.121028873654186</v>
+        <v>0.3391678660798939</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.06143780472882551</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03761191566823788</v>
+        <v>-0.0002268147440498427</v>
       </c>
       <c r="H10" t="n">
-        <v>-38.7805019494926</v>
+        <v>-100.3691778133202</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>0.04993015109538564</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05338807697863173</v>
+        <v>0.03396086582882882</v>
       </c>
       <c r="H11" t="n">
-        <v>6.925526575395556</v>
+        <v>-31.98325043328909</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.09256721126172732</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1062828415514818</v>
+        <v>0.1371822776914079</v>
       </c>
       <c r="H12" t="n">
-        <v>14.81694230905854</v>
+        <v>48.19748355984777</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.07620771866200983</v>
       </c>
       <c r="G13" t="n">
-        <v>0.101982874365828</v>
+        <v>0.09569972464618243</v>
       </c>
       <c r="H13" t="n">
-        <v>33.82223763728449</v>
+        <v>25.57746948261492</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>0.2259616431045758</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2120408973627949</v>
+        <v>0.2167102398658949</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.160667602925126</v>
+        <v>-4.094236132987986</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.2463625649637403</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2567507099372304</v>
+        <v>0.2640720401677575</v>
       </c>
       <c r="H15" t="n">
-        <v>4.216608548063732</v>
+        <v>7.188379130012581</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1137448579612704</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1431853386201261</v>
+        <v>0.1429041827411249</v>
       </c>
       <c r="H16" t="n">
-        <v>25.88291126872747</v>
+        <v>25.63573009145004</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1494083849463164</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1028074007812364</v>
+        <v>0.0943169704345611</v>
       </c>
       <c r="H17" t="n">
-        <v>-31.19034061028374</v>
+        <v>-36.87304064731713</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.00895194916121023</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.006007652242193011</v>
+        <v>-0.002855643521567395</v>
       </c>
       <c r="H18" t="n">
-        <v>-32.89000938226032</v>
+        <v>68.10031569503087</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.02422178921552041</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.007561783915156831</v>
+        <v>0.001865998991759696</v>
       </c>
       <c r="H19" t="n">
-        <v>-131.2189320445061</v>
+        <v>-92.2961967212396</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.08506115944719507</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1262806740805903</v>
+        <v>0.09873453375979419</v>
       </c>
       <c r="H20" t="n">
-        <v>48.4586794975253</v>
+        <v>16.07475656511287</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.06545396619895082</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1432656408978221</v>
+        <v>0.1450757409329498</v>
       </c>
       <c r="H21" t="n">
-        <v>118.8799995134879</v>
+        <v>121.6454545962644</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1915616787370005</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1482773313381557</v>
+        <v>0.189675963253995</v>
       </c>
       <c r="H22" t="n">
-        <v>-22.59551476277825</v>
+        <v>-0.9843907693012284</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.2157073228835368</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2159225165257591</v>
+        <v>0.1963916179169492</v>
       </c>
       <c r="H23" t="n">
-        <v>0.09976186220552714</v>
+        <v>-8.954589352080738</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>-0.0038055686336801</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.003889080590678996</v>
+        <v>-0.009526415772110768</v>
       </c>
       <c r="H24" t="n">
-        <v>2.194467240974103</v>
+        <v>-150.3283132985683</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>-0.02325732122729886</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.05885498963106307</v>
+        <v>-0.03330076571945329</v>
       </c>
       <c r="H25" t="n">
-        <v>153.0600538895278</v>
+        <v>-43.18401244063176</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.2048663213539785</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1976853164868972</v>
+        <v>0.1917716490241828</v>
       </c>
       <c r="H26" t="n">
-        <v>-3.505214922404746</v>
+        <v>-6.391813082429517</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.1928845404492652</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2359600277562945</v>
+        <v>0.2238005697415886</v>
       </c>
       <c r="H27" t="n">
-        <v>22.33226530581362</v>
+        <v>16.02825670751736</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.06691367310833238</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.0142104183448203</v>
+        <v>0.02228585007918493</v>
       </c>
       <c r="H28" t="n">
-        <v>-121.2369425929045</v>
+        <v>-66.69462451552401</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.09426457756500864</v>
       </c>
       <c r="G29" t="n">
-        <v>0.06791311995472192</v>
+        <v>0.05635487996235866</v>
       </c>
       <c r="H29" t="n">
-        <v>-27.95478247607241</v>
+        <v>-40.2162706097165</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>

--- a/Code/Data/DJI/Compared Returns/Manual Recurrence/input 30/DJI_returns_compared_annual.xlsx
+++ b/Code/Data/DJI/Compared Returns/Manual Recurrence/input 30/DJI_returns_compared_annual.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.06631783486247173</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08815322733340154</v>
+        <v>0.06091455863883025</v>
       </c>
       <c r="H2" t="n">
-        <v>32.92536994944349</v>
+        <v>-8.147546183989046</v>
       </c>
       <c r="I2" t="n">
-        <v>-8.467553196120466</v>
+        <v>-5.123253149119593</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.1182628833448802</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09720123653599541</v>
+        <v>0.1307271089491298</v>
       </c>
       <c r="H3" t="n">
-        <v>-17.80917749778218</v>
+        <v>10.53942306471695</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.274995350893673</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.39586394350955</v>
+        <v>-0.4145087063810201</v>
       </c>
       <c r="H4" t="n">
-        <v>-43.95295855841973</v>
+        <v>-50.73298695194668</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.3990148638577719</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3385672669325922</v>
+        <v>-0.4290888256076349</v>
       </c>
       <c r="H5" t="n">
-        <v>15.14920931535176</v>
+        <v>-7.537052995745741</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.1971491815785268</v>
       </c>
       <c r="G6" t="n">
-        <v>0.224871422970643</v>
+        <v>0.1836515653084748</v>
       </c>
       <c r="H6" t="n">
-        <v>14.06155540193005</v>
+        <v>-6.8463973129281</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.2073822796460858</v>
       </c>
       <c r="G7" t="n">
-        <v>0.272224770871786</v>
+        <v>0.3226415608039043</v>
       </c>
       <c r="H7" t="n">
-        <v>31.26713205022098</v>
+        <v>55.57817252010035</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.1018960173709444</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08645905805581128</v>
+        <v>0.1015084768147391</v>
       </c>
       <c r="H8" t="n">
-        <v>-15.14971802964202</v>
+        <v>-0.3803294438824816</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.1264800612384527</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1269090409631717</v>
+        <v>0.1370387726508655</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3391678660798939</v>
+        <v>8.34812326071417</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.06143780472882551</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0002268147440498427</v>
+        <v>0.04704933322488328</v>
       </c>
       <c r="H10" t="n">
-        <v>-100.3691778133202</v>
+        <v>-23.4195729607367</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>0.04993015109538564</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03396086582882882</v>
+        <v>0.03773178224432856</v>
       </c>
       <c r="H11" t="n">
-        <v>-31.98325043328909</v>
+        <v>-24.43086708821197</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.09256721126172732</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1371822776914079</v>
+        <v>0.1219543408696468</v>
       </c>
       <c r="H12" t="n">
-        <v>48.19748355984777</v>
+        <v>31.74680235837442</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.07620771866200983</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09569972464618243</v>
+        <v>0.08924474581767286</v>
       </c>
       <c r="H13" t="n">
-        <v>25.57746948261492</v>
+        <v>17.10722664915843</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>0.2259616431045758</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2167102398658949</v>
+        <v>0.231658027129248</v>
       </c>
       <c r="H14" t="n">
-        <v>-4.094236132987986</v>
+        <v>2.52095176261215</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.2463625649637403</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2640720401677575</v>
+        <v>0.2457655062503053</v>
       </c>
       <c r="H15" t="n">
-        <v>7.188379130012581</v>
+        <v>-0.2423496092122862</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1137448579612704</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1429041827411249</v>
+        <v>0.119046778688261</v>
       </c>
       <c r="H16" t="n">
-        <v>25.63573009145004</v>
+        <v>4.661239920661622</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1494083849463164</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0943169704345611</v>
+        <v>0.1156884937184325</v>
       </c>
       <c r="H17" t="n">
-        <v>-36.87304064731713</v>
+        <v>-22.56894165611904</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.00895194916121023</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.002855643521567395</v>
+        <v>-0.01068220093323061</v>
       </c>
       <c r="H18" t="n">
-        <v>68.10031569503087</v>
+        <v>-19.3282126703506</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.02422178921552041</v>
       </c>
       <c r="G19" t="n">
-        <v>0.001865998991759696</v>
+        <v>0.0425761115824068</v>
       </c>
       <c r="H19" t="n">
-        <v>-92.2961967212396</v>
+        <v>75.77607997317403</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.08506115944719507</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09873453375979419</v>
+        <v>0.1244012655429656</v>
       </c>
       <c r="H20" t="n">
-        <v>16.07475656511287</v>
+        <v>46.24920040055695</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.06545396619895082</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1450757409329498</v>
+        <v>0.1338669105052991</v>
       </c>
       <c r="H21" t="n">
-        <v>121.6454545962644</v>
+        <v>104.5207010044334</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1915616787370005</v>
       </c>
       <c r="G22" t="n">
-        <v>0.189675963253995</v>
+        <v>0.1835804114812105</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.9843907693012284</v>
+        <v>-4.166421649889425</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.2157073228835368</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1963916179169492</v>
+        <v>0.2069301937187523</v>
       </c>
       <c r="H23" t="n">
-        <v>-8.954589352080738</v>
+        <v>-4.068999163984525</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>-0.0038055686336801</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.009526415772110768</v>
+        <v>-0.01935087340486509</v>
       </c>
       <c r="H24" t="n">
-        <v>-150.3283132985683</v>
+        <v>-408.4883566047319</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>-0.02325732122729886</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.03330076571945329</v>
+        <v>0.003654445474025173</v>
       </c>
       <c r="H25" t="n">
-        <v>-43.18401244063176</v>
+        <v>115.7130971288975</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.2048663213539785</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1917716490241828</v>
+        <v>0.185242108368188</v>
       </c>
       <c r="H26" t="n">
-        <v>-6.391813082429517</v>
+        <v>-9.579033223270891</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.1928845404492652</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2238005697415886</v>
+        <v>0.2048634857006695</v>
       </c>
       <c r="H27" t="n">
-        <v>16.02825670751736</v>
+        <v>6.210422682659293</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.06691367310833238</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02228585007918493</v>
+        <v>0.04606343700052995</v>
       </c>
       <c r="H28" t="n">
-        <v>-66.69462451552401</v>
+        <v>-31.15990370764158</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,14 +1394,14 @@
         <v>0.09426457756500864</v>
       </c>
       <c r="G29" t="n">
-        <v>0.05635487996235866</v>
+        <v>0.09301504621873845</v>
       </c>
       <c r="H29" t="n">
-        <v>-40.2162706097165</v>
+        <v>-1.325557678766941</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>